--- a/observations/summary_files/mtp089/NOMAD_dayside_nadir_summary.xlsx
+++ b/observations/summary_files/mtp089/NOMAD_dayside_nadir_summary.xlsx
@@ -1048,7 +1048,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col hidden="1" min="6" max="10"/>
+    <col hidden="1" width="13" customWidth="1" min="6" max="10"/>
     <col width="26.109375" bestFit="1" customWidth="1" min="11" max="11"/>
     <col width="25.44140625" bestFit="1" customWidth="1" min="12" max="12"/>
   </cols>
